--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Minqiang\Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -397,14 +397,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,6 +463,50 @@
         <a:xfrm>
           <a:off x="38100" y="5400675"/>
           <a:ext cx="2380952" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7286625"/>
+          <a:ext cx="7010400" cy="5019675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -751,13 +795,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -765,9 +809,9 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -852,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +913,7 @@
       <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1067,7 +1111,7 @@
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>56</v>
       </c>
     </row>
